--- a/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
+++ b/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="371">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2189,8 +2189,8 @@
   <dimension ref="A2:K642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3405" topLeftCell="A591" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E606" sqref="E606"/>
+      <pane ySplit="3405" topLeftCell="A618" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K635" sqref="K635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2357,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.669999999999959</v>
+        <v>80.169999999999959</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2367,7 +2367,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.58299999999997</v>
+        <v>57.08299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15699,15 +15699,17 @@
       <c r="B627" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C627" s="13"/>
+      <c r="C627" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D627" s="39">
         <v>1</v>
       </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G627" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
@@ -15723,13 +15725,15 @@
       <c r="B628" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C628" s="13"/>
+      <c r="C628" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D628" s="39"/>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G628" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
@@ -15787,13 +15791,15 @@
         <v>45108</v>
       </c>
       <c r="B631" s="20"/>
-      <c r="C631" s="13"/>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
@@ -15805,13 +15811,15 @@
         <v>45139</v>
       </c>
       <c r="B632" s="20"/>
-      <c r="C632" s="13"/>
+      <c r="C632" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G632" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
@@ -15823,13 +15831,15 @@
         <v>45170</v>
       </c>
       <c r="B633" s="20"/>
-      <c r="C633" s="13"/>
+      <c r="C633" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D633" s="39"/>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G633" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
@@ -15841,13 +15851,15 @@
         <v>45200</v>
       </c>
       <c r="B634" s="20"/>
-      <c r="C634" s="13"/>
+      <c r="C634" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G634" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
@@ -15858,7 +15870,9 @@
       <c r="A635" s="40">
         <v>45231</v>
       </c>
-      <c r="B635" s="20"/>
+      <c r="B635" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
       <c r="E635" s="9"/>
@@ -15867,10 +15881,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H635" s="39"/>
+      <c r="H635" s="39">
+        <v>1</v>
+      </c>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
+      <c r="K635" s="49">
+        <v>45240</v>
+      </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
